--- a/davidmszabo/Time Sheet.xlsx
+++ b/davidmszabo/Time Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Start time</t>
   </si>
@@ -42,13 +42,22 @@
     <t>Sidebar, button</t>
   </si>
   <si>
-    <t>Created two sidebars and modified the button, so that it links to something</t>
-  </si>
-  <si>
     <t>cv_workshop.html</t>
   </si>
   <si>
     <t>Created a basic outline for the workshop article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created two sidebars and modified the button, so that it links to something. Started with the comments, so created a database and got stuck with the php include - the form doesn't show up on the website. </t>
+  </si>
+  <si>
+    <t>Codingacademy</t>
+  </si>
+  <si>
+    <t>Zwebdesign</t>
+  </si>
+  <si>
+    <t>Modifying the template</t>
   </si>
 </sst>
 </file>
@@ -446,15 +455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
@@ -477,43 +487,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>0.75</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="2">
         <v>0.8125</v>
       </c>
-      <c r="C2" s="2">
-        <f>B2-A2</f>
+      <c r="C4" s="2">
+        <f>B4-A4</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D4" s="3">
         <v>41783</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="26" customHeight="1">
+      <c r="A5" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="C5" s="2">
+        <f>B5-A5</f>
+        <v>0.23749999999999993</v>
+      </c>
+      <c r="D5" s="3">
+        <v>41784</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C3" s="2">
-        <f>B3-A3</f>
-        <v>-0.70833333333333337</v>
-      </c>
-      <c r="D3" s="3">
-        <v>41784</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/davidmszabo/Time Sheet.xlsx
+++ b/davidmszabo/Time Sheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Start time</t>
   </si>
@@ -58,13 +58,16 @@
   </si>
   <si>
     <t>Modifying the template</t>
+  </si>
+  <si>
+    <t>Solved the php include stuff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +97,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,11 +126,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -130,6 +142,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -455,39 +472,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -499,7 +517,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -513,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.75</v>
       </c>
@@ -534,7 +552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26" customHeight="1">
+    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.70833333333333337</v>
       </c>
@@ -555,9 +573,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B6-A6</f>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>41787</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/davidmszabo/Time Sheet.xlsx
+++ b/davidmszabo/Time Sheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Start time</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Solved the php include stuff</t>
+  </si>
+  <si>
+    <t>Show comment</t>
+  </si>
+  <si>
+    <t>Now the php commenting works on localhost - it needs to be formatted, but it displays the comments</t>
   </si>
 </sst>
 </file>
@@ -121,8 +127,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -135,9 +143,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -505,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -517,7 +527,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -531,7 +541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>0.75</v>
       </c>
@@ -552,7 +562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26" customHeight="1">
       <c r="A5" s="2">
         <v>0.70833333333333337</v>
       </c>
@@ -573,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -594,9 +604,30 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="C7" s="2">
+        <f>B7-A7</f>
+        <v>5.7638888888888795E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>41788</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/davidmszabo/Time Sheet.xlsx
+++ b/davidmszabo/Time Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Start time</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>Solved the php include stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tried to connect to the webserver database and insert a comment, but it doesn't want to, however it executes the php file to the end. </t>
+  </si>
+  <si>
+    <t>There is something wrong with the php insert syntax, but now the cv_workshop.php doesn't load in</t>
+  </si>
+  <si>
+    <t>Php syntax error</t>
+  </si>
+  <si>
+    <t>used ' instead of " in the insert into query, but now it doesn't input something in the database</t>
+  </si>
+  <si>
+    <t>Practice php get and post</t>
+  </si>
+  <si>
+    <t>http://mrarrowhead.com/index.php?page=php_passing_variables.php</t>
   </si>
 </sst>
 </file>
@@ -472,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,7 +557,7 @@
         <v>0.8125</v>
       </c>
       <c r="C4" s="2">
-        <f>B4-A4</f>
+        <f t="shared" ref="C4:C10" si="0">B4-A4</f>
         <v>6.25E-2</v>
       </c>
       <c r="D4" s="3">
@@ -560,7 +578,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="C5" s="2">
-        <f>B5-A5</f>
+        <f t="shared" si="0"/>
         <v>0.23749999999999993</v>
       </c>
       <c r="D5" s="3">
@@ -581,7 +599,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="C6" s="2">
-        <f>B6-A6</f>
+        <f t="shared" si="0"/>
         <v>3.7500000000000089E-2</v>
       </c>
       <c r="D6" s="3">
@@ -592,6 +610,90 @@
       </c>
       <c r="F6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>41789</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9861111111111116E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>41797</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>41798</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
